--- a/data/exp_raw/qxtables.xlsx
+++ b/data/exp_raw/qxtables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blomerusjm\.julia\environments\WatVal\LifeVal\data\exp_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F544685A-94E6-4768-BD30-7F2C891A664E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3562ED0D-BD7E-498B-BC8E-B99D80066569}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A471A6D-0FC7-472A-9A37-059D26A05113}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{9A471A6D-0FC7-472A-9A37-059D26A05113}"/>
   </bookViews>
   <sheets>
     <sheet name="ASSA" sheetId="4" r:id="rId1"/>
@@ -7277,7 +7277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25153B12-DE1F-4015-89E8-5F3DC7332D0B}">
   <dimension ref="A1:G228"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -37069,7 +37069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1723D2B0-5FC0-4132-AE6A-9B1C64F804F3}">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView topLeftCell="G41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G26" workbookViewId="0">
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
